--- a/Code/Results/Cases/Case_6_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_63/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.02914686847224</v>
+        <v>13.21133806495693</v>
       </c>
       <c r="C2">
-        <v>9.93919566402985</v>
+        <v>6.069028392806606</v>
       </c>
       <c r="D2">
-        <v>10.99003752271587</v>
+        <v>11.93423320984297</v>
       </c>
       <c r="E2">
-        <v>7.068260931817385</v>
+        <v>7.525908667407739</v>
       </c>
       <c r="F2">
-        <v>64.78272214364917</v>
+        <v>66.54484543506834</v>
       </c>
       <c r="G2">
-        <v>2.122577198699672</v>
+        <v>2.168738378134143</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.47741970937645</v>
+        <v>9.65567376744448</v>
       </c>
       <c r="L2">
-        <v>6.209255472750722</v>
+        <v>6.277422716425722</v>
       </c>
       <c r="M2">
-        <v>11.59584726879537</v>
+        <v>10.20239461651607</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.94566807100358</v>
+        <v>12.58686675067125</v>
       </c>
       <c r="C3">
-        <v>9.293050282294523</v>
+        <v>5.823093211739003</v>
       </c>
       <c r="D3">
-        <v>10.59237751071679</v>
+        <v>11.54455102080987</v>
       </c>
       <c r="E3">
-        <v>7.013006583417917</v>
+        <v>7.440462232815234</v>
       </c>
       <c r="F3">
-        <v>61.32983865343424</v>
+        <v>63.32345088077359</v>
       </c>
       <c r="G3">
-        <v>2.135971451036491</v>
+        <v>2.179606652930024</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.38895588890361</v>
+        <v>9.130663250105057</v>
       </c>
       <c r="L3">
-        <v>6.14511775385582</v>
+        <v>6.217001728491508</v>
       </c>
       <c r="M3">
-        <v>11.23867776174323</v>
+        <v>10.02543676127476</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.27026970262731</v>
+        <v>12.20461005736048</v>
       </c>
       <c r="C4">
-        <v>8.882110980433453</v>
+        <v>5.66882743520497</v>
       </c>
       <c r="D4">
-        <v>10.34549102853656</v>
+        <v>11.30091816901437</v>
       </c>
       <c r="E4">
-        <v>6.979799566186284</v>
+        <v>7.389517530449699</v>
       </c>
       <c r="F4">
-        <v>59.1592882445545</v>
+        <v>61.29314563967367</v>
       </c>
       <c r="G4">
-        <v>2.144334037817964</v>
+        <v>2.186420204226634</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.69139533233274</v>
+        <v>8.877690229231137</v>
       </c>
       <c r="L4">
-        <v>6.109242059232008</v>
+        <v>6.183054697610955</v>
       </c>
       <c r="M4">
-        <v>11.02684645587186</v>
+        <v>9.924343619284084</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.99270634297241</v>
+        <v>12.04933346490405</v>
       </c>
       <c r="C5">
-        <v>8.710952614410227</v>
+        <v>5.605094341898597</v>
       </c>
       <c r="D5">
-        <v>10.24419875579232</v>
+        <v>11.20055450890966</v>
       </c>
       <c r="E5">
-        <v>6.966415512851812</v>
+        <v>7.369128954358149</v>
       </c>
       <c r="F5">
-        <v>58.26241230013742</v>
+        <v>60.45310634783563</v>
       </c>
       <c r="G5">
-        <v>2.147781146351325</v>
+        <v>2.18923482193971</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.39958321144964</v>
+        <v>8.77589503407833</v>
       </c>
       <c r="L5">
-        <v>6.095477618363976</v>
+        <v>6.169996891608537</v>
       </c>
       <c r="M5">
-        <v>10.94243456060773</v>
+        <v>9.885029009920551</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.94648427947933</v>
+        <v>12.02358641639827</v>
       </c>
       <c r="C6">
-        <v>8.682305338272279</v>
+        <v>5.594457760495047</v>
       </c>
       <c r="D6">
-        <v>10.22733821028855</v>
+        <v>11.18382455963848</v>
       </c>
       <c r="E6">
-        <v>6.964201147737578</v>
+        <v>7.365765615168847</v>
       </c>
       <c r="F6">
-        <v>58.11275366649563</v>
+        <v>60.31287024153725</v>
       </c>
       <c r="G6">
-        <v>2.148356031592856</v>
+        <v>2.189704560666385</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.35066662851725</v>
+        <v>8.75907423187609</v>
       </c>
       <c r="L6">
-        <v>6.093242946995522</v>
+        <v>6.167875027654024</v>
       </c>
       <c r="M6">
-        <v>10.92853451783874</v>
+        <v>9.878613891712313</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.26653548233849</v>
+        <v>12.20251364281315</v>
       </c>
       <c r="C7">
-        <v>8.879817799220513</v>
+        <v>5.667971484464295</v>
       </c>
       <c r="D7">
-        <v>10.34412772466868</v>
+        <v>11.29956897887471</v>
       </c>
       <c r="E7">
-        <v>6.979618505565968</v>
+        <v>7.389241070654684</v>
       </c>
       <c r="F7">
-        <v>59.14724212607384</v>
+        <v>61.28186713353931</v>
       </c>
       <c r="G7">
-        <v>2.144380362057356</v>
+        <v>2.186458005653963</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.68749066981616</v>
+        <v>8.87631196370319</v>
       </c>
       <c r="L7">
-        <v>6.109052998412244</v>
+        <v>6.182875475908821</v>
       </c>
       <c r="M7">
-        <v>11.02570026216771</v>
+        <v>9.923805816847581</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.65776981563474</v>
+        <v>12.99588718104822</v>
       </c>
       <c r="C8">
-        <v>9.719269938880219</v>
+        <v>5.984875168717934</v>
       </c>
       <c r="D8">
-        <v>10.85348483101662</v>
+        <v>11.8007839381745</v>
       </c>
       <c r="E8">
-        <v>7.049039066951375</v>
+        <v>7.496124774638621</v>
       </c>
       <c r="F8">
-        <v>63.60278048693397</v>
+        <v>65.44522463346372</v>
       </c>
       <c r="G8">
-        <v>2.127169629671567</v>
+        <v>2.17245834093413</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.10805961154132</v>
+        <v>9.411744700736282</v>
       </c>
       <c r="L8">
-        <v>6.186397155743994</v>
+        <v>6.255925357556145</v>
       </c>
       <c r="M8">
-        <v>11.47116092479899</v>
+        <v>10.13979934938541</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.53596256266537</v>
+        <v>14.55410581185007</v>
       </c>
       <c r="C9">
-        <v>11.25967145825497</v>
+        <v>6.58305276374506</v>
       </c>
       <c r="D9">
-        <v>11.83160848050765</v>
+        <v>12.74886925136492</v>
       </c>
       <c r="E9">
-        <v>7.192568849741732</v>
+        <v>7.718317252399828</v>
       </c>
       <c r="F9">
-        <v>71.93561491755446</v>
+        <v>73.18027317641608</v>
       </c>
       <c r="G9">
-        <v>2.094290285013115</v>
+        <v>2.145982576747568</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.67202117105553</v>
+        <v>11.09909042025976</v>
       </c>
       <c r="L9">
-        <v>6.367146599383109</v>
+        <v>6.424956299874685</v>
       </c>
       <c r="M9">
-        <v>12.40323207640025</v>
+        <v>10.62420785925931</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.66802969156382</v>
+        <v>15.69431256059725</v>
       </c>
       <c r="C10">
-        <v>12.3386963169404</v>
+        <v>7.012654227071262</v>
       </c>
       <c r="D10">
-        <v>12.54032319023526</v>
+        <v>13.42497315401914</v>
       </c>
       <c r="E10">
-        <v>7.305272620061555</v>
+        <v>7.890122960691858</v>
       </c>
       <c r="F10">
-        <v>77.82150057583004</v>
+        <v>78.59390149490608</v>
       </c>
       <c r="G10">
-        <v>2.070299045828382</v>
+        <v>2.126914438821959</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.43706819194655</v>
+        <v>12.25133053650971</v>
       </c>
       <c r="L10">
-        <v>6.519632854170504</v>
+        <v>6.56600967252302</v>
       </c>
       <c r="M10">
-        <v>13.31548278988871</v>
+        <v>11.01857862271933</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.61509678304398</v>
+        <v>16.29582260588107</v>
       </c>
       <c r="C11">
-        <v>12.82143623503391</v>
+        <v>7.207119335279661</v>
       </c>
       <c r="D11">
-        <v>12.86167006165345</v>
+        <v>13.72856306223781</v>
       </c>
       <c r="E11">
-        <v>7.358869668971585</v>
+        <v>7.970383605035873</v>
       </c>
       <c r="F11">
-        <v>80.45469024136018</v>
+        <v>80.99965195717603</v>
       </c>
       <c r="G11">
-        <v>2.059322402381687</v>
+        <v>2.11826865848693</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.21868940894541</v>
+        <v>12.75861728954553</v>
       </c>
       <c r="L11">
-        <v>6.593793128431654</v>
+        <v>6.634126120307136</v>
       </c>
       <c r="M11">
-        <v>13.8616759017726</v>
+        <v>11.20674613913701</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.97089638374586</v>
+        <v>16.53172560896627</v>
       </c>
       <c r="C12">
-        <v>13.00340974076023</v>
+        <v>7.280736491715708</v>
       </c>
       <c r="D12">
-        <v>12.98333422726473</v>
+        <v>13.84301146462753</v>
       </c>
       <c r="E12">
-        <v>7.379576687163245</v>
+        <v>8.001103403708729</v>
       </c>
       <c r="F12">
-        <v>81.44633017769141</v>
+        <v>81.90276899764892</v>
       </c>
       <c r="G12">
-        <v>2.055146925987485</v>
+        <v>2.114993585458019</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.5120470313358</v>
+        <v>12.94848565801908</v>
       </c>
       <c r="L12">
-        <v>6.622616434301354</v>
+        <v>6.660515278597985</v>
       </c>
       <c r="M12">
-        <v>14.06634499216057</v>
+        <v>11.27930536667567</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.89438644093807</v>
+        <v>16.48102020057165</v>
       </c>
       <c r="C13">
-        <v>12.96424934275238</v>
+        <v>7.264880680844374</v>
       </c>
       <c r="D13">
-        <v>12.95713025301308</v>
+        <v>13.81838473413646</v>
       </c>
       <c r="E13">
-        <v>7.37509741495926</v>
+        <v>7.994472376924238</v>
       </c>
       <c r="F13">
-        <v>81.23298990597384</v>
+        <v>81.70861101221885</v>
       </c>
       <c r="G13">
-        <v>2.056047202827419</v>
+        <v>2.115699070183406</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.44897620039284</v>
+        <v>12.90768990336024</v>
       </c>
       <c r="L13">
-        <v>6.61637497379964</v>
+        <v>6.654804969339803</v>
       </c>
       <c r="M13">
-        <v>14.02235713408236</v>
+        <v>11.263619596755</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.64442251770933</v>
+        <v>16.31527606951524</v>
       </c>
       <c r="C14">
-        <v>12.83642177687787</v>
+        <v>7.213175586090763</v>
       </c>
       <c r="D14">
-        <v>12.87167903926171</v>
+        <v>13.73798872167805</v>
       </c>
       <c r="E14">
-        <v>7.360564523957428</v>
+        <v>7.972904236971255</v>
       </c>
       <c r="F14">
-        <v>80.53637704794481</v>
+        <v>81.07410777329359</v>
       </c>
       <c r="G14">
-        <v>2.058979323639064</v>
+        <v>2.11799927056164</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.24287395739037</v>
+        <v>12.77428135772677</v>
       </c>
       <c r="L14">
-        <v>6.596149273744153</v>
+        <v>6.63628508038598</v>
       </c>
       <c r="M14">
-        <v>13.87855574696656</v>
+        <v>11.21268919494409</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.49095825421748</v>
+        <v>16.21345535820449</v>
       </c>
       <c r="C15">
-        <v>12.75802672918302</v>
+        <v>7.181505534886423</v>
       </c>
       <c r="D15">
-        <v>12.81933914933028</v>
+        <v>13.68867883773438</v>
       </c>
       <c r="E15">
-        <v>7.351718732818481</v>
+        <v>7.959736483699936</v>
       </c>
       <c r="F15">
-        <v>80.10899740098188</v>
+        <v>80.68444041561598</v>
       </c>
       <c r="G15">
-        <v>2.060772556346161</v>
+        <v>2.119407900260255</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.11630275151529</v>
+        <v>12.69228058529226</v>
       </c>
       <c r="L15">
-        <v>6.583858548794715</v>
+        <v>6.625019458304822</v>
       </c>
       <c r="M15">
-        <v>13.79020059376109</v>
+        <v>11.1816642212935</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.60571349048282</v>
+        <v>15.66047701942247</v>
       </c>
       <c r="C16">
-        <v>12.30701229835802</v>
+        <v>6.999935602327118</v>
       </c>
       <c r="D16">
-        <v>12.5193114130837</v>
+        <v>13.40505733681712</v>
       </c>
       <c r="E16">
-        <v>7.301822975302404</v>
+        <v>7.8849220633683</v>
       </c>
       <c r="F16">
-        <v>77.64859252260415</v>
+        <v>78.43555640131338</v>
       </c>
       <c r="G16">
-        <v>2.07101432752407</v>
+        <v>2.127479604274326</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.38559452020507</v>
+        <v>12.21785485401873</v>
       </c>
       <c r="L16">
-        <v>6.514886929166043</v>
+        <v>6.561639804140558</v>
       </c>
       <c r="M16">
-        <v>13.27946916466212</v>
+        <v>11.00646128965788</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.05708827795549</v>
+        <v>15.36380049076682</v>
       </c>
       <c r="C17">
-        <v>12.02847262840092</v>
+        <v>6.888378679393028</v>
       </c>
       <c r="D17">
-        <v>12.33506508321141</v>
+        <v>13.23008192646772</v>
       </c>
       <c r="E17">
-        <v>7.27185979443873</v>
+        <v>7.839580861747601</v>
       </c>
       <c r="F17">
-        <v>76.12840128975419</v>
+        <v>77.04152064630966</v>
       </c>
       <c r="G17">
-        <v>2.077274727716678</v>
+        <v>2.132435125104255</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.93216149906934</v>
+        <v>11.92262065769869</v>
       </c>
       <c r="L17">
-        <v>6.47383643494432</v>
+        <v>6.52378818030593</v>
       </c>
       <c r="M17">
-        <v>12.96199161142525</v>
+        <v>10.90125257141439</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.73935338703299</v>
+        <v>15.19302965335864</v>
       </c>
       <c r="C18">
-        <v>11.86747679582348</v>
+        <v>6.824115537756703</v>
       </c>
       <c r="D18">
-        <v>12.22898287560328</v>
+        <v>13.12906227798891</v>
       </c>
       <c r="E18">
-        <v>7.254839554921276</v>
+        <v>7.813698289753377</v>
       </c>
       <c r="F18">
-        <v>75.24978613540172</v>
+        <v>76.23432180701353</v>
       </c>
       <c r="G18">
-        <v>2.080870297821019</v>
+        <v>2.135288431431142</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.66932316299582</v>
+        <v>11.75120851928104</v>
       </c>
       <c r="L18">
-        <v>6.450672938582128</v>
+        <v>6.502386962868457</v>
       </c>
       <c r="M18">
-        <v>12.80358126380917</v>
+        <v>10.84156117679483</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.63138726658014</v>
+        <v>15.13518705464326</v>
       </c>
       <c r="C19">
-        <v>11.81282187078552</v>
+        <v>6.802336971851257</v>
       </c>
       <c r="D19">
-        <v>12.19304328043324</v>
+        <v>13.09479232657999</v>
       </c>
       <c r="E19">
-        <v>7.249111405246753</v>
+        <v>7.804967978960406</v>
       </c>
       <c r="F19">
-        <v>74.95155128538516</v>
+        <v>75.96008642279037</v>
       </c>
       <c r="G19">
-        <v>2.082087067977391</v>
+        <v>2.136255178268549</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.57996876796298</v>
+        <v>11.69289070603923</v>
       </c>
       <c r="L19">
-        <v>6.442905648660065</v>
+        <v>6.495203676646076</v>
       </c>
       <c r="M19">
-        <v>12.76694716924868</v>
+        <v>10.82149071840824</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.11571307090055</v>
+        <v>15.39539563558113</v>
       </c>
       <c r="C20">
-        <v>12.05820287256284</v>
+        <v>6.900263521144004</v>
       </c>
       <c r="D20">
-        <v>12.35468884353708</v>
+        <v>13.24874716836333</v>
       </c>
       <c r="E20">
-        <v>7.275026790399341</v>
+        <v>7.844387013812266</v>
       </c>
       <c r="F20">
-        <v>76.29066169894861</v>
+        <v>77.19047391921134</v>
       </c>
       <c r="G20">
-        <v>2.076608906328616</v>
+        <v>2.131907324160817</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.98063795024068</v>
+        <v>11.95421321862699</v>
       </c>
       <c r="L20">
-        <v>6.478159657142152</v>
+        <v>6.527779071023761</v>
       </c>
       <c r="M20">
-        <v>12.9959529449008</v>
+        <v>10.91236688050793</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.71791584475361</v>
+        <v>16.36402082409315</v>
       </c>
       <c r="C21">
-        <v>12.87398734838803</v>
+        <v>7.228362223411589</v>
       </c>
       <c r="D21">
-        <v>12.89677754900675</v>
+        <v>13.76161639871963</v>
       </c>
       <c r="E21">
-        <v>7.364821354408813</v>
+        <v>7.979230237789498</v>
       </c>
       <c r="F21">
-        <v>80.74112972524519</v>
+        <v>81.26068769546498</v>
       </c>
       <c r="G21">
-        <v>2.058118687139909</v>
+        <v>2.117323720694279</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.30347857064567</v>
+        <v>12.81352552008045</v>
       </c>
       <c r="L21">
-        <v>6.602069503258284</v>
+        <v>6.641708439890436</v>
       </c>
       <c r="M21">
-        <v>13.92084996315408</v>
+        <v>11.22761287903973</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.7488099505597</v>
+        <v>17.04652145112382</v>
       </c>
       <c r="C22">
-        <v>13.40251835103303</v>
+        <v>7.442729742563984</v>
       </c>
       <c r="D22">
-        <v>13.25101761215344</v>
+        <v>14.09384710720622</v>
       </c>
       <c r="E22">
-        <v>7.425949029864734</v>
+        <v>8.069277750595209</v>
       </c>
       <c r="F22">
-        <v>83.6183794119853</v>
+        <v>83.87507842148521</v>
       </c>
       <c r="G22">
-        <v>2.045918482756961</v>
+        <v>2.107783130858371</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.15298884725253</v>
+        <v>13.3622465720875</v>
       </c>
       <c r="L22">
-        <v>6.687398490628638</v>
+        <v>6.719651251647389</v>
       </c>
       <c r="M22">
-        <v>14.51288174881345</v>
+        <v>11.44127685803944</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.1999138234053</v>
+        <v>16.68342603711845</v>
       </c>
       <c r="C23">
-        <v>13.12072671000264</v>
+        <v>7.328280396024864</v>
       </c>
       <c r="D23">
-        <v>13.06190493295189</v>
+        <v>13.91677640257409</v>
       </c>
       <c r="E23">
-        <v>7.393071564335492</v>
+        <v>8.021032859887352</v>
       </c>
       <c r="F23">
-        <v>82.08524111755455</v>
+        <v>82.48377372589997</v>
       </c>
       <c r="G23">
-        <v>2.052444257946372</v>
+        <v>2.112877880613722</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.70080055959009</v>
+        <v>13.07049171910442</v>
       </c>
       <c r="L23">
-        <v>6.641439606957709</v>
+        <v>6.67772298143897</v>
       </c>
       <c r="M23">
-        <v>14.19793826674548</v>
+        <v>11.32652404957174</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.08921606990649</v>
+        <v>15.38111211881035</v>
       </c>
       <c r="C24">
-        <v>12.04476453135955</v>
+        <v>6.894890790079179</v>
       </c>
       <c r="D24">
-        <v>12.34581743819413</v>
+        <v>13.24030993706699</v>
       </c>
       <c r="E24">
-        <v>7.27359435543762</v>
+        <v>7.842213578952626</v>
       </c>
       <c r="F24">
-        <v>76.21731827388308</v>
+        <v>77.12315007236796</v>
       </c>
       <c r="G24">
-        <v>2.07690993472993</v>
+        <v>2.13214592915535</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.95872848685977</v>
+        <v>11.93993546313217</v>
       </c>
       <c r="L24">
-        <v>6.476203771019942</v>
+        <v>6.525973669405381</v>
       </c>
       <c r="M24">
-        <v>12.9806043348009</v>
+        <v>10.90733962979947</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.72810046911721</v>
+        <v>14.13310066005728</v>
       </c>
       <c r="C25">
-        <v>10.85318402053726</v>
+        <v>6.423316632461569</v>
       </c>
       <c r="D25">
-        <v>11.56901842268507</v>
+        <v>12.49608226229568</v>
       </c>
       <c r="E25">
-        <v>7.152689879281652</v>
+        <v>7.656776676329505</v>
       </c>
       <c r="F25">
-        <v>69.72439021583257</v>
+        <v>71.13502619855046</v>
       </c>
       <c r="G25">
-        <v>2.103126491869307</v>
+        <v>2.153060831189439</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.0005787551462</v>
+        <v>10.6586247661663</v>
       </c>
       <c r="L25">
-        <v>6.314946589116549</v>
+        <v>6.376355246226291</v>
       </c>
       <c r="M25">
-        <v>12.1448522262309</v>
+        <v>10.48651787204829</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.21133806495693</v>
+        <v>12.50461588157923</v>
       </c>
       <c r="C2">
-        <v>6.069028392806606</v>
+        <v>7.701383364892801</v>
       </c>
       <c r="D2">
-        <v>11.93423320984297</v>
+        <v>5.519731942202966</v>
       </c>
       <c r="E2">
-        <v>7.525908667407739</v>
+        <v>7.439940255079389</v>
       </c>
       <c r="F2">
-        <v>66.54484543506834</v>
+        <v>26.07154390965422</v>
       </c>
       <c r="G2">
-        <v>2.168738378134143</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>36.61559714483752</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.063921973865526</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.36197578288633</v>
       </c>
       <c r="K2">
-        <v>9.65567376744448</v>
+        <v>20.61726990969288</v>
       </c>
       <c r="L2">
-        <v>6.277422716425722</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.20239461651607</v>
+        <v>10.97376192497954</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.435561229482134</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.55211728226112</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.58686675067125</v>
+        <v>11.6704634925989</v>
       </c>
       <c r="C3">
-        <v>5.823093211739003</v>
+        <v>7.39236840916184</v>
       </c>
       <c r="D3">
-        <v>11.54455102080987</v>
+        <v>5.465572569382894</v>
       </c>
       <c r="E3">
-        <v>7.440462232815234</v>
+        <v>7.426233096163175</v>
       </c>
       <c r="F3">
-        <v>63.32345088077359</v>
+        <v>25.56451613440497</v>
       </c>
       <c r="G3">
-        <v>2.179606652930024</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>35.89413388877698</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.28505204749675</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.31769166473985</v>
       </c>
       <c r="K3">
-        <v>9.130663250105057</v>
+        <v>20.5232995526807</v>
       </c>
       <c r="L3">
-        <v>6.217001728491508</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.02543676127476</v>
+        <v>10.33902726429435</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.362889716159438</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.237661604432223</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.20461005736048</v>
+        <v>11.12690178770525</v>
       </c>
       <c r="C4">
-        <v>5.66882743520497</v>
+        <v>7.197594123137936</v>
       </c>
       <c r="D4">
-        <v>11.30091816901437</v>
+        <v>5.431590009078031</v>
       </c>
       <c r="E4">
-        <v>7.389517530449699</v>
+        <v>7.419181059689958</v>
       </c>
       <c r="F4">
-        <v>61.29314563967367</v>
+        <v>25.25718368285418</v>
       </c>
       <c r="G4">
-        <v>2.186420204226634</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>35.45552794992309</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.426144103787673</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.29367507578594</v>
       </c>
       <c r="K4">
-        <v>8.877690229231137</v>
+        <v>20.46923043358746</v>
       </c>
       <c r="L4">
-        <v>6.183054697610955</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.924343619284084</v>
+        <v>9.929420677538776</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.321387709492893</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.042391316510242</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.04933346490405</v>
+        <v>10.89535504635963</v>
       </c>
       <c r="C5">
-        <v>5.605094341898597</v>
+        <v>7.121812428596375</v>
       </c>
       <c r="D5">
-        <v>11.20055450890966</v>
+        <v>5.418540130643787</v>
       </c>
       <c r="E5">
-        <v>7.369128954358149</v>
+        <v>7.415160870979558</v>
       </c>
       <c r="F5">
-        <v>60.45310634783563</v>
+        <v>25.11847614378132</v>
       </c>
       <c r="G5">
-        <v>2.18923482193971</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>35.25223816293728</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.487484462384303</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.27988199039294</v>
       </c>
       <c r="K5">
-        <v>8.77589503407833</v>
+        <v>20.43719773119224</v>
       </c>
       <c r="L5">
-        <v>6.169996891608537</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.885029009920551</v>
+        <v>9.758965838618035</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.305821962300421</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.962300993550453</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.02358641639827</v>
+        <v>10.8538524104475</v>
       </c>
       <c r="C6">
-        <v>5.594457760495047</v>
+        <v>7.115096116317973</v>
       </c>
       <c r="D6">
-        <v>11.18382455963848</v>
+        <v>5.41757278198541</v>
       </c>
       <c r="E6">
-        <v>7.365765615168847</v>
+        <v>7.412695899817747</v>
       </c>
       <c r="F6">
-        <v>60.31287024153725</v>
+        <v>25.07769148821168</v>
       </c>
       <c r="G6">
-        <v>2.189704560666385</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>35.18702104422018</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.500916898700759</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.27178619682441</v>
       </c>
       <c r="K6">
-        <v>8.75907423187609</v>
+        <v>20.41861923689349</v>
       </c>
       <c r="L6">
-        <v>6.167875027654024</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.878613891712313</v>
+        <v>9.732105729296357</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.303970671814491</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.948880817161642</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.20251364281315</v>
+        <v>11.11694608067841</v>
       </c>
       <c r="C7">
-        <v>5.667971484464295</v>
+        <v>7.212620114853416</v>
       </c>
       <c r="D7">
-        <v>11.29956897887471</v>
+        <v>5.434757790225047</v>
       </c>
       <c r="E7">
-        <v>7.389241070654684</v>
+        <v>7.414174862682445</v>
       </c>
       <c r="F7">
-        <v>61.28186713353931</v>
+        <v>25.20696670399875</v>
       </c>
       <c r="G7">
-        <v>2.186458005653963</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>35.36722478952368</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.435367034871155</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.27754874620939</v>
       </c>
       <c r="K7">
-        <v>8.87631196370319</v>
+        <v>20.43252824768615</v>
       </c>
       <c r="L7">
-        <v>6.182875475908821</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.923805816847581</v>
+        <v>9.931811557127187</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.323039268484649</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.041028626143554</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.99588718104822</v>
+        <v>12.21508783859646</v>
       </c>
       <c r="C8">
-        <v>5.984875168717934</v>
+        <v>7.616342264793014</v>
       </c>
       <c r="D8">
-        <v>11.8007839381745</v>
+        <v>5.505805348575978</v>
       </c>
       <c r="E8">
-        <v>7.496124774638621</v>
+        <v>7.428447487455675</v>
       </c>
       <c r="F8">
-        <v>65.44522463346372</v>
+        <v>25.83364293587632</v>
       </c>
       <c r="G8">
-        <v>2.17245834093413</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>36.25573563399939</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.149803522653428</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.32518476616914</v>
       </c>
       <c r="K8">
-        <v>9.411744700736282</v>
+        <v>20.53663691053962</v>
       </c>
       <c r="L8">
-        <v>6.255925357556145</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.13979934938541</v>
+        <v>10.76484864787159</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.412285562310141</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.443775157646716</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.55410581185007</v>
+        <v>14.13240205145757</v>
       </c>
       <c r="C9">
-        <v>6.58305276374506</v>
+        <v>8.340363424844702</v>
       </c>
       <c r="D9">
-        <v>12.74886925136492</v>
+        <v>5.633099444209357</v>
       </c>
       <c r="E9">
-        <v>7.718317252399828</v>
+        <v>7.476109310623151</v>
       </c>
       <c r="F9">
-        <v>73.18027317641608</v>
+        <v>27.17322895496777</v>
       </c>
       <c r="G9">
-        <v>2.145982576747568</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>38.17476777278056</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.617232969306057</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.47268365522332</v>
       </c>
       <c r="K9">
-        <v>11.09909042025976</v>
+        <v>20.83443278865094</v>
       </c>
       <c r="L9">
-        <v>6.424956299874685</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.62420785925931</v>
+        <v>12.23209201163199</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.608606348264987</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.21221619191447</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.69431256059725</v>
+        <v>15.39046270963001</v>
       </c>
       <c r="C10">
-        <v>7.012654227071262</v>
+        <v>8.854600542974083</v>
       </c>
       <c r="D10">
-        <v>13.42497315401914</v>
+        <v>5.725083503044541</v>
       </c>
       <c r="E10">
-        <v>7.890122960691858</v>
+        <v>7.515579987118944</v>
       </c>
       <c r="F10">
-        <v>78.59390149490608</v>
+        <v>28.14622739689831</v>
       </c>
       <c r="G10">
-        <v>2.126914438821959</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>39.55588844915361</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.255002278832905</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.59039262066705</v>
       </c>
       <c r="K10">
-        <v>12.25133053650971</v>
+        <v>21.05520779568514</v>
       </c>
       <c r="L10">
-        <v>6.56600967252302</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.01857862271933</v>
+        <v>13.21472310942148</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.768393274969962</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.75778077644016</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.29582260588107</v>
+        <v>15.92315488968545</v>
       </c>
       <c r="C11">
-        <v>7.207119335279661</v>
+        <v>9.105219826411998</v>
       </c>
       <c r="D11">
-        <v>13.72856306223781</v>
+        <v>5.772468130533031</v>
       </c>
       <c r="E11">
-        <v>7.970383605035873</v>
+        <v>7.52734014351739</v>
       </c>
       <c r="F11">
-        <v>80.99965195717603</v>
+        <v>28.52141051014544</v>
       </c>
       <c r="G11">
-        <v>2.11826865848693</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>40.0636224588642</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.111185165760219</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.62331357054436</v>
       </c>
       <c r="K11">
-        <v>12.75861728954553</v>
+        <v>21.10428158494535</v>
       </c>
       <c r="L11">
-        <v>6.634126120307136</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.20674613913701</v>
+        <v>13.64644573028775</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.846963803012295</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.00022392236923</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.53172560896627</v>
+        <v>16.12491896181556</v>
       </c>
       <c r="C12">
-        <v>7.280736491715708</v>
+        <v>9.187350928272629</v>
       </c>
       <c r="D12">
-        <v>13.84301146462753</v>
+        <v>5.787032617417293</v>
       </c>
       <c r="E12">
-        <v>8.001103403708729</v>
+        <v>7.536142615611253</v>
       </c>
       <c r="F12">
-        <v>81.90276899764892</v>
+        <v>28.70092811619616</v>
       </c>
       <c r="G12">
-        <v>2.114993585458019</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>40.3219081110098</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.049508408407751</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.64954077382385</v>
       </c>
       <c r="K12">
-        <v>12.94848565801908</v>
+        <v>21.1534979546328</v>
       </c>
       <c r="L12">
-        <v>6.660515278597985</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.27930536667567</v>
+        <v>13.80373443206066</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.875655328794894</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.09161646133696</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.48102020057165</v>
+        <v>16.08254677191668</v>
       </c>
       <c r="C13">
-        <v>7.264880680844374</v>
+        <v>9.16732106292249</v>
       </c>
       <c r="D13">
-        <v>13.81838473413646</v>
+        <v>5.783233035867156</v>
       </c>
       <c r="E13">
-        <v>7.994472376924238</v>
+        <v>7.535063104285326</v>
       </c>
       <c r="F13">
-        <v>81.70861101221885</v>
+        <v>28.66965025202016</v>
       </c>
       <c r="G13">
-        <v>2.115699070183406</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>40.27933415342537</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.061033124251762</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.64649695405266</v>
       </c>
       <c r="K13">
-        <v>12.90768990336024</v>
+        <v>21.14885014673006</v>
       </c>
       <c r="L13">
-        <v>6.654804969339803</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.263619596755</v>
+        <v>13.76937059642478</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.86915861728268</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.07204604707261</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.31527606951524</v>
+        <v>15.94022145147986</v>
       </c>
       <c r="C14">
-        <v>7.213175586090763</v>
+        <v>9.110977215529529</v>
       </c>
       <c r="D14">
-        <v>13.73798872167805</v>
+        <v>5.773385162404167</v>
       </c>
       <c r="E14">
-        <v>7.972904236971255</v>
+        <v>7.528411256603347</v>
       </c>
       <c r="F14">
-        <v>81.07410777329359</v>
+        <v>28.53933013710474</v>
       </c>
       <c r="G14">
-        <v>2.11799927056164</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>40.09044129364221</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.105362109985271</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.6265791723094</v>
       </c>
       <c r="K14">
-        <v>12.77428135772677</v>
+        <v>21.11086288226758</v>
       </c>
       <c r="L14">
-        <v>6.63628508038598</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.21268919494409</v>
+        <v>13.65917974635198</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.849188468806824</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.00779134650178</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.21345535820449</v>
+        <v>15.85069760899697</v>
       </c>
       <c r="C15">
-        <v>7.181505534886423</v>
+        <v>9.081098809982725</v>
       </c>
       <c r="D15">
-        <v>13.68867883773438</v>
+        <v>5.768652637140455</v>
       </c>
       <c r="E15">
-        <v>7.959736483699936</v>
+        <v>7.522735280909444</v>
       </c>
       <c r="F15">
-        <v>80.68444041561598</v>
+        <v>28.44484327426083</v>
       </c>
       <c r="G15">
-        <v>2.119407900260255</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>39.94881265028808</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.136053097532257</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.60925709895732</v>
       </c>
       <c r="K15">
-        <v>12.69228058529226</v>
+        <v>21.07586347889722</v>
       </c>
       <c r="L15">
-        <v>6.625019458304822</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.1816642212935</v>
+        <v>13.59253742168273</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.837603934737227</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.96817981970401</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.66047701942247</v>
+        <v>15.33982698107159</v>
       </c>
       <c r="C16">
-        <v>6.999935602327118</v>
+        <v>8.878477724940074</v>
       </c>
       <c r="D16">
-        <v>13.40505733681712</v>
+        <v>5.732924003143712</v>
       </c>
       <c r="E16">
-        <v>7.8849220633683</v>
+        <v>7.501044382056691</v>
       </c>
       <c r="F16">
-        <v>78.43555640131338</v>
+        <v>27.99655165713576</v>
       </c>
       <c r="G16">
-        <v>2.127479604274326</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>39.30147972606613</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.291673677645749</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.54426394447248</v>
       </c>
       <c r="K16">
-        <v>12.21785485401873</v>
+        <v>20.951897571925</v>
       </c>
       <c r="L16">
-        <v>6.561639804140558</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.00646128965788</v>
+        <v>13.19679096230106</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.768342429010264</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.74059577223953</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.36380049076682</v>
+        <v>15.01839086026225</v>
       </c>
       <c r="C17">
-        <v>6.888378679393028</v>
+        <v>8.752787898577047</v>
       </c>
       <c r="D17">
-        <v>13.23008192646772</v>
+        <v>5.710768227430587</v>
       </c>
       <c r="E17">
-        <v>7.839580861747601</v>
+        <v>7.488178908733481</v>
       </c>
       <c r="F17">
-        <v>77.04152064630966</v>
+        <v>27.72202827018655</v>
       </c>
       <c r="G17">
-        <v>2.132435125104255</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>38.90489150610358</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.388496009283122</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.50556275274333</v>
       </c>
       <c r="K17">
-        <v>11.92262065769869</v>
+        <v>20.87735371148502</v>
       </c>
       <c r="L17">
-        <v>6.52378818030593</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.90125257141439</v>
+        <v>12.94863959124583</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.72662961519335</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.599657282757</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.19302965335864</v>
+        <v>14.83527433552726</v>
       </c>
       <c r="C18">
-        <v>6.824115537756703</v>
+        <v>8.667452562969048</v>
       </c>
       <c r="D18">
-        <v>13.12906227798891</v>
+        <v>5.694617494424594</v>
       </c>
       <c r="E18">
-        <v>7.813698289753377</v>
+        <v>7.485132217316615</v>
       </c>
       <c r="F18">
-        <v>76.23432180701353</v>
+        <v>27.60283018894841</v>
       </c>
       <c r="G18">
-        <v>2.135288431431142</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>38.74505705891557</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.43585316663537</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.4971392717728</v>
       </c>
       <c r="K18">
-        <v>11.75120851928104</v>
+        <v>20.86551260849367</v>
       </c>
       <c r="L18">
-        <v>6.502386962868457</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.84156117679483</v>
+        <v>12.8005927400236</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.701386280126201</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.51849443704887</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.13518705464326</v>
+        <v>14.76911953659406</v>
       </c>
       <c r="C19">
-        <v>6.802336971851257</v>
+        <v>8.648113589811459</v>
       </c>
       <c r="D19">
-        <v>13.09479232657999</v>
+        <v>5.69169336141593</v>
       </c>
       <c r="E19">
-        <v>7.804967978960406</v>
+        <v>7.480895355493265</v>
       </c>
       <c r="F19">
-        <v>75.96008642279037</v>
+        <v>27.53285806638384</v>
       </c>
       <c r="G19">
-        <v>2.136255178268549</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>38.63856828563858</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.458726922521691</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.48401739720863</v>
       </c>
       <c r="K19">
-        <v>11.69289070603923</v>
+        <v>20.83808689685743</v>
       </c>
       <c r="L19">
-        <v>6.495203676646076</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.82149071840824</v>
+        <v>12.75269548859341</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.694075197281143</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.49065400868389</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.39539563558113</v>
+        <v>15.05328235686637</v>
       </c>
       <c r="C20">
-        <v>6.900263521144004</v>
+        <v>8.765244588284261</v>
       </c>
       <c r="D20">
-        <v>13.24874716836333</v>
+        <v>5.712874153949342</v>
       </c>
       <c r="E20">
-        <v>7.844387013812266</v>
+        <v>7.489860117953408</v>
       </c>
       <c r="F20">
-        <v>77.19047391921134</v>
+        <v>27.75423259716471</v>
       </c>
       <c r="G20">
-        <v>2.131907324160817</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>38.95239139284692</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.377432467451684</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.51068843433438</v>
       </c>
       <c r="K20">
-        <v>11.95421321862699</v>
+        <v>20.88761855300625</v>
       </c>
       <c r="L20">
-        <v>6.527779071023761</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.91236688050793</v>
+        <v>12.97500128897741</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.730919970776743</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.61473802993265</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.36402082409315</v>
+        <v>15.9771767487372</v>
       </c>
       <c r="C21">
-        <v>7.228362223411589</v>
+        <v>9.140923592517879</v>
       </c>
       <c r="D21">
-        <v>13.76161639871963</v>
+        <v>5.780030056231085</v>
       </c>
       <c r="E21">
-        <v>7.979230237789498</v>
+        <v>7.525724219179368</v>
       </c>
       <c r="F21">
-        <v>81.26068769546498</v>
+        <v>28.53608262626885</v>
       </c>
       <c r="G21">
-        <v>2.117323720694279</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>40.07256295281957</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.10222779799034</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.61764695096009</v>
       </c>
       <c r="K21">
-        <v>12.81352552008045</v>
+        <v>21.08843411451783</v>
       </c>
       <c r="L21">
-        <v>6.641708439890436</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.22761287903973</v>
+        <v>13.69513349556194</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.856717685313521</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.02625700271131</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.04652145112382</v>
+        <v>16.56121507534727</v>
       </c>
       <c r="C22">
-        <v>7.442729742563984</v>
+        <v>9.36497951541681</v>
       </c>
       <c r="D22">
-        <v>14.09384710720622</v>
+        <v>5.818380812979938</v>
       </c>
       <c r="E22">
-        <v>8.069277750595209</v>
+        <v>7.556504172918353</v>
       </c>
       <c r="F22">
-        <v>83.87507842148521</v>
+        <v>29.10098202755368</v>
       </c>
       <c r="G22">
-        <v>2.107783130858371</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>40.89897844737155</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.914037915380502</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.71020019751266</v>
       </c>
       <c r="K22">
-        <v>13.3622465720875</v>
+        <v>21.26729364705108</v>
       </c>
       <c r="L22">
-        <v>6.719651251647389</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.44127685803944</v>
+        <v>14.14380619212191</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.939317946467673</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.2911792549708</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.68342603711845</v>
+        <v>16.2578104971778</v>
       </c>
       <c r="C23">
-        <v>7.328280396024864</v>
+        <v>9.229812763601469</v>
       </c>
       <c r="D23">
-        <v>13.91677640257409</v>
+        <v>5.793467627532419</v>
       </c>
       <c r="E23">
-        <v>8.021032859887352</v>
+        <v>7.545521661225495</v>
       </c>
       <c r="F23">
-        <v>82.48377372589997</v>
+        <v>28.84918394198722</v>
       </c>
       <c r="G23">
-        <v>2.112877880613722</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>40.54577570366062</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.002422701599586</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.67820126232764</v>
       </c>
       <c r="K23">
-        <v>13.07049171910442</v>
+        <v>21.2117517071619</v>
       </c>
       <c r="L23">
-        <v>6.67772298143897</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.32652404957174</v>
+        <v>13.90175330447278</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.892995002027835</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.15074355077725</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.38111211881035</v>
+        <v>15.04742745611249</v>
       </c>
       <c r="C24">
-        <v>6.894890790079179</v>
+        <v>8.733366433347538</v>
       </c>
       <c r="D24">
-        <v>13.24030993706699</v>
+        <v>5.704906865335504</v>
       </c>
       <c r="E24">
-        <v>7.842213578952626</v>
+        <v>7.497962190370854</v>
       </c>
       <c r="F24">
-        <v>77.12315007236796</v>
+        <v>27.82066531351164</v>
       </c>
       <c r="G24">
-        <v>2.13214592915535</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>39.07407918619992</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.364422589568931</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.53670455682612</v>
       </c>
       <c r="K24">
-        <v>11.93993546313217</v>
+        <v>20.9474001926015</v>
       </c>
       <c r="L24">
-        <v>6.525973669405381</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.90733962979947</v>
+        <v>12.95610464950782</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.725736839126794</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.60870171294357</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.13310066005728</v>
+        <v>13.6294935997854</v>
       </c>
       <c r="C25">
-        <v>6.423316632461569</v>
+        <v>8.175460577809243</v>
       </c>
       <c r="D25">
-        <v>12.49608226229568</v>
+        <v>5.605853092711055</v>
       </c>
       <c r="E25">
-        <v>7.656776676329505</v>
+        <v>7.45330250298409</v>
       </c>
       <c r="F25">
-        <v>71.13502619855046</v>
+        <v>26.72678355176471</v>
       </c>
       <c r="G25">
-        <v>2.153060831189439</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>37.50872183652839</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.772438065033553</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.40188831660526</v>
       </c>
       <c r="K25">
-        <v>10.6586247661663</v>
+        <v>20.68686846787895</v>
       </c>
       <c r="L25">
-        <v>6.376355246226291</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.48651787204829</v>
+        <v>11.85952170376853</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.556124531664032</v>
       </c>
       <c r="O25">
+        <v>10.00658686265392</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.50461588157923</v>
+        <v>12.45199697470314</v>
       </c>
       <c r="C2">
-        <v>7.701383364892801</v>
+        <v>7.785742177006003</v>
       </c>
       <c r="D2">
-        <v>5.519731942202966</v>
+        <v>5.494636594337945</v>
       </c>
       <c r="E2">
-        <v>7.439940255079389</v>
+        <v>7.130822105767775</v>
       </c>
       <c r="F2">
-        <v>26.07154390965422</v>
+        <v>24.17957484425542</v>
       </c>
       <c r="G2">
-        <v>36.61559714483752</v>
+        <v>33.10029197438428</v>
       </c>
       <c r="I2">
-        <v>4.063921973865526</v>
+        <v>3.789997830088549</v>
       </c>
       <c r="J2">
-        <v>12.36197578288633</v>
+        <v>11.75970902570647</v>
       </c>
       <c r="K2">
-        <v>20.61726990969288</v>
+        <v>18.91488716189222</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.86287971323781</v>
       </c>
       <c r="M2">
-        <v>10.97376192497954</v>
+        <v>13.16163275852875</v>
       </c>
       <c r="N2">
-        <v>6.435561229482134</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.55211728226112</v>
+        <v>11.18877222855382</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.542027544046332</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.447969626717162</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.6704634925989</v>
+        <v>11.65116245190844</v>
       </c>
       <c r="C3">
-        <v>7.39236840916184</v>
+        <v>7.373718350826761</v>
       </c>
       <c r="D3">
-        <v>5.465572569382894</v>
+        <v>5.400859785381434</v>
       </c>
       <c r="E3">
-        <v>7.426233096163175</v>
+        <v>7.133078730755262</v>
       </c>
       <c r="F3">
-        <v>25.56451613440497</v>
+        <v>23.82319965168882</v>
       </c>
       <c r="G3">
-        <v>35.89413388877698</v>
+        <v>32.71755575276781</v>
       </c>
       <c r="I3">
-        <v>4.28505204749675</v>
+        <v>3.980507655940312</v>
       </c>
       <c r="J3">
-        <v>12.31769166473985</v>
+        <v>11.71548264983006</v>
       </c>
       <c r="K3">
-        <v>20.5232995526807</v>
+        <v>18.93237804402282</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.94591805674249</v>
       </c>
       <c r="M3">
-        <v>10.33902726429435</v>
+        <v>13.13073592233052</v>
       </c>
       <c r="N3">
-        <v>6.362889716159438</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.237661604432223</v>
+        <v>10.54534625856491</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.463914792962619</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.121045963821318</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.12690178770525</v>
+        <v>11.12941870678077</v>
       </c>
       <c r="C4">
-        <v>7.197594123137936</v>
+        <v>7.11267561088219</v>
       </c>
       <c r="D4">
-        <v>5.431590009078031</v>
+        <v>5.342507907613547</v>
       </c>
       <c r="E4">
-        <v>7.419181059689958</v>
+        <v>7.135716441267986</v>
       </c>
       <c r="F4">
-        <v>25.25718368285418</v>
+        <v>23.60830024344061</v>
       </c>
       <c r="G4">
-        <v>35.45552794992309</v>
+        <v>32.49284483147628</v>
       </c>
       <c r="I4">
-        <v>4.426144103787673</v>
+        <v>4.102425866410093</v>
       </c>
       <c r="J4">
-        <v>12.29367507578594</v>
+        <v>11.68874603219822</v>
       </c>
       <c r="K4">
-        <v>20.46923043358746</v>
+        <v>18.94554374705499</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.99426211735516</v>
       </c>
       <c r="M4">
-        <v>9.929420677538776</v>
+        <v>13.1301156289551</v>
       </c>
       <c r="N4">
-        <v>6.321387709492893</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.042391316510242</v>
+        <v>10.13020886977302</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.419095125709187</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.916945131282713</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.89535504635963</v>
+        <v>10.90728996132164</v>
       </c>
       <c r="C5">
-        <v>7.121812428596375</v>
+        <v>7.010023865922116</v>
       </c>
       <c r="D5">
-        <v>5.418540130643787</v>
+        <v>5.319787487409116</v>
       </c>
       <c r="E5">
-        <v>7.415160870979558</v>
+        <v>7.135812340430057</v>
       </c>
       <c r="F5">
-        <v>25.11847614378132</v>
+        <v>23.50851249298956</v>
       </c>
       <c r="G5">
-        <v>35.25223816293728</v>
+        <v>32.38068360543182</v>
       </c>
       <c r="I5">
-        <v>4.487484462384303</v>
+        <v>4.156229804642905</v>
       </c>
       <c r="J5">
-        <v>12.27988199039294</v>
+        <v>11.67357407227889</v>
       </c>
       <c r="K5">
-        <v>20.43719773119224</v>
+        <v>18.94200109790138</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.00476261139256</v>
       </c>
       <c r="M5">
-        <v>9.758965838618035</v>
+        <v>13.12861591038187</v>
       </c>
       <c r="N5">
-        <v>6.305821962300421</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.962300993550453</v>
+        <v>9.957371546695388</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.40213942018512</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.832964207291189</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.8538524104475</v>
+        <v>10.86757461435154</v>
       </c>
       <c r="C6">
-        <v>7.115096116317973</v>
+        <v>6.999846391535007</v>
       </c>
       <c r="D6">
-        <v>5.41757278198541</v>
+        <v>5.31753421940078</v>
       </c>
       <c r="E6">
-        <v>7.412695899817747</v>
+        <v>7.134269452308828</v>
       </c>
       <c r="F6">
-        <v>25.07769148821168</v>
+        <v>23.47583157048773</v>
       </c>
       <c r="G6">
-        <v>35.18702104422018</v>
+        <v>32.33395377917866</v>
       </c>
       <c r="I6">
-        <v>4.500916898700759</v>
+        <v>4.168903091010427</v>
       </c>
       <c r="J6">
-        <v>12.27178619682441</v>
+        <v>11.66570812579197</v>
       </c>
       <c r="K6">
-        <v>20.41861923689349</v>
+        <v>18.92985653704631</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.99605189629754</v>
       </c>
       <c r="M6">
-        <v>9.732105729296357</v>
+        <v>13.12151279517454</v>
       </c>
       <c r="N6">
-        <v>6.303970671814491</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.948880817161642</v>
+        <v>9.929995629808246</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.399999374273557</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.818879140954014</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.11694608067841</v>
+        <v>11.12147189824871</v>
       </c>
       <c r="C7">
-        <v>7.212620114853416</v>
+        <v>7.123893536211967</v>
       </c>
       <c r="D7">
-        <v>5.434757790225047</v>
+        <v>5.34906881544398</v>
       </c>
       <c r="E7">
-        <v>7.414174862682445</v>
+        <v>7.132263005760348</v>
       </c>
       <c r="F7">
-        <v>25.20696670399875</v>
+        <v>23.5370507529091</v>
       </c>
       <c r="G7">
-        <v>35.36722478952368</v>
+        <v>32.46805200075922</v>
       </c>
       <c r="I7">
-        <v>4.435367034871155</v>
+        <v>4.113583361355379</v>
       </c>
       <c r="J7">
-        <v>12.27754874620939</v>
+        <v>11.62894993665622</v>
       </c>
       <c r="K7">
-        <v>20.43252824768615</v>
+        <v>18.89943929765742</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.95372717355718</v>
       </c>
       <c r="M7">
-        <v>9.931811557127187</v>
+        <v>13.10096219294348</v>
       </c>
       <c r="N7">
-        <v>6.323039268484649</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.041028626143554</v>
+        <v>10.13029108593057</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.420116303311811</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.915985789349419</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.21508783859646</v>
+        <v>12.17848286893516</v>
       </c>
       <c r="C8">
-        <v>7.616342264793014</v>
+        <v>7.64958955253197</v>
       </c>
       <c r="D8">
-        <v>5.505805348575978</v>
+        <v>5.47731472852084</v>
       </c>
       <c r="E8">
-        <v>7.428447487455675</v>
+        <v>7.128601425245449</v>
       </c>
       <c r="F8">
-        <v>25.83364293587632</v>
+        <v>23.91517789043773</v>
       </c>
       <c r="G8">
-        <v>36.25573563399939</v>
+        <v>33.04329834809236</v>
       </c>
       <c r="I8">
-        <v>4.149803522653428</v>
+        <v>3.869320435396871</v>
       </c>
       <c r="J8">
-        <v>12.32518476616914</v>
+        <v>11.57869327716495</v>
       </c>
       <c r="K8">
-        <v>20.53663691053962</v>
+        <v>18.83196587525062</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.81810772201248</v>
       </c>
       <c r="M8">
-        <v>10.76484864787159</v>
+        <v>13.08663567177379</v>
       </c>
       <c r="N8">
-        <v>6.412285562310141</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.443775157646716</v>
+        <v>10.9705001340848</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.515159711371347</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.33693268300533</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.13240205145757</v>
+        <v>14.01933100303787</v>
       </c>
       <c r="C9">
-        <v>8.340363424844702</v>
+        <v>8.60616349462266</v>
       </c>
       <c r="D9">
-        <v>5.633099444209357</v>
+        <v>5.704581728581074</v>
       </c>
       <c r="E9">
-        <v>7.476109310623151</v>
+        <v>7.13596929060929</v>
       </c>
       <c r="F9">
-        <v>27.17322895496777</v>
+        <v>24.85813782137223</v>
       </c>
       <c r="G9">
-        <v>38.17476777278056</v>
+        <v>34.19084371723815</v>
       </c>
       <c r="I9">
-        <v>3.617232969306057</v>
+        <v>3.41027375050685</v>
       </c>
       <c r="J9">
-        <v>12.47268365522332</v>
+        <v>11.67085677339765</v>
       </c>
       <c r="K9">
-        <v>20.83443278865094</v>
+        <v>18.82837166318699</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.62323354010225</v>
       </c>
       <c r="M9">
-        <v>12.23209201163199</v>
+        <v>13.27737197807871</v>
       </c>
       <c r="N9">
-        <v>6.608606348264987</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.21221619191447</v>
+        <v>12.45726672378651</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.724784827496085</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.12991896724068</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.39046270963001</v>
+        <v>15.2325776161467</v>
       </c>
       <c r="C10">
-        <v>8.854600542974083</v>
+        <v>9.245991835159469</v>
       </c>
       <c r="D10">
-        <v>5.725083503044541</v>
+        <v>5.886226799241404</v>
       </c>
       <c r="E10">
-        <v>7.515579987118944</v>
+        <v>7.15105981437651</v>
       </c>
       <c r="F10">
-        <v>28.14622739689831</v>
+        <v>25.41149181567678</v>
       </c>
       <c r="G10">
-        <v>39.55588844915361</v>
+        <v>35.35042700387003</v>
       </c>
       <c r="I10">
-        <v>3.255002278832905</v>
+        <v>3.104996226111841</v>
       </c>
       <c r="J10">
-        <v>12.59039262066705</v>
+        <v>11.48865863205833</v>
       </c>
       <c r="K10">
-        <v>21.05520779568514</v>
+        <v>18.7457485799921</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.39789004157418</v>
       </c>
       <c r="M10">
-        <v>13.21472310942148</v>
+        <v>13.4323508407944</v>
       </c>
       <c r="N10">
-        <v>6.768393274969962</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.75778077644016</v>
+        <v>13.44324189607399</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.891379999290868</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.68938788915052</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.92315488968545</v>
+        <v>15.75665775578447</v>
       </c>
       <c r="C11">
-        <v>9.105219826411998</v>
+        <v>9.502564996818986</v>
       </c>
       <c r="D11">
-        <v>5.772468130533031</v>
+        <v>6.006258290726717</v>
       </c>
       <c r="E11">
-        <v>7.52734014351739</v>
+        <v>7.16257549285329</v>
       </c>
       <c r="F11">
-        <v>28.52141051014544</v>
+        <v>25.36769357107257</v>
       </c>
       <c r="G11">
-        <v>40.0636224588642</v>
+        <v>36.30568933818448</v>
       </c>
       <c r="I11">
-        <v>3.111185165760219</v>
+        <v>2.994900490610894</v>
       </c>
       <c r="J11">
-        <v>12.62331357054436</v>
+        <v>10.97645568283023</v>
       </c>
       <c r="K11">
-        <v>21.10428158494535</v>
+        <v>18.52491654895607</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.16030757460241</v>
       </c>
       <c r="M11">
-        <v>13.64644573028775</v>
+        <v>13.37119558888551</v>
       </c>
       <c r="N11">
-        <v>6.846963803012295</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>11.00022392236923</v>
+        <v>13.86089651879684</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.968028490678346</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.93967975555023</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.12491896181556</v>
+        <v>15.95610460041196</v>
       </c>
       <c r="C12">
-        <v>9.187350928272629</v>
+        <v>9.579319061904702</v>
       </c>
       <c r="D12">
-        <v>5.787032617417293</v>
+        <v>6.051611680545807</v>
       </c>
       <c r="E12">
-        <v>7.536142615611253</v>
+        <v>7.172115575873211</v>
       </c>
       <c r="F12">
-        <v>28.70092811619616</v>
+        <v>25.35641700695862</v>
       </c>
       <c r="G12">
-        <v>40.3219081110098</v>
+        <v>36.79658378247386</v>
       </c>
       <c r="I12">
-        <v>3.049508408407751</v>
+        <v>2.945117600003683</v>
       </c>
       <c r="J12">
-        <v>12.64954077382385</v>
+        <v>10.75141551168899</v>
       </c>
       <c r="K12">
-        <v>21.1534979546328</v>
+        <v>18.44984566727344</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.07738066870937</v>
       </c>
       <c r="M12">
-        <v>13.80373443206066</v>
+        <v>13.35582427169099</v>
       </c>
       <c r="N12">
-        <v>6.875655328794894</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>11.09161646133696</v>
+        <v>14.0113487704962</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.995494839696479</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.03410192427789</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.08254677191668</v>
+        <v>15.91409922951422</v>
       </c>
       <c r="C13">
-        <v>9.16732106292249</v>
+        <v>9.560436190867113</v>
       </c>
       <c r="D13">
-        <v>5.783233035867156</v>
+        <v>6.040795331706113</v>
       </c>
       <c r="E13">
-        <v>7.535063104285326</v>
+        <v>7.170695765702961</v>
       </c>
       <c r="F13">
-        <v>28.66965025202016</v>
+        <v>25.3667534798309</v>
       </c>
       <c r="G13">
-        <v>40.27933415342537</v>
+        <v>36.69965462276941</v>
       </c>
       <c r="I13">
-        <v>3.061033124251762</v>
+        <v>2.953770846705933</v>
       </c>
       <c r="J13">
-        <v>12.64649695405266</v>
+        <v>10.80356126369695</v>
       </c>
       <c r="K13">
-        <v>21.14885014673006</v>
+        <v>18.47178809690056</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.09934323271935</v>
       </c>
       <c r="M13">
-        <v>13.76937059642478</v>
+        <v>13.3637018153023</v>
       </c>
       <c r="N13">
-        <v>6.86915861728268</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>11.07204604707261</v>
+        <v>13.97856457454536</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.989316171748706</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.01387275408979</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.94022145147986</v>
+        <v>15.77347590350628</v>
       </c>
       <c r="C14">
-        <v>9.110977215529529</v>
+        <v>9.507879057455904</v>
       </c>
       <c r="D14">
-        <v>5.773385162404167</v>
+        <v>6.009542770770596</v>
       </c>
       <c r="E14">
-        <v>7.528411256603347</v>
+        <v>7.163628419228937</v>
       </c>
       <c r="F14">
-        <v>28.53933013710474</v>
+        <v>25.37017153820415</v>
       </c>
       <c r="G14">
-        <v>40.09044129364221</v>
+        <v>36.34975166283375</v>
       </c>
       <c r="I14">
-        <v>3.105362109985271</v>
+        <v>2.989922139827915</v>
       </c>
       <c r="J14">
-        <v>12.6265791723094</v>
+        <v>10.9595902528576</v>
       </c>
       <c r="K14">
-        <v>21.11086288226758</v>
+        <v>18.52122218211977</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.15525714745395</v>
       </c>
       <c r="M14">
-        <v>13.65917974635198</v>
+        <v>13.37188547338398</v>
       </c>
       <c r="N14">
-        <v>6.849188468806824</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>11.00779134650178</v>
+        <v>13.87311593033178</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.970176061027292</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.94749366850111</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.85069760899697</v>
+        <v>15.6853121057441</v>
       </c>
       <c r="C15">
-        <v>9.081098809982725</v>
+        <v>9.480113499914877</v>
       </c>
       <c r="D15">
-        <v>5.768652637140455</v>
+        <v>5.992611944662254</v>
       </c>
       <c r="E15">
-        <v>7.522735280909444</v>
+        <v>7.158119245828763</v>
       </c>
       <c r="F15">
-        <v>28.44484327426083</v>
+        <v>25.35535208723398</v>
       </c>
       <c r="G15">
-        <v>39.94881265028808</v>
+        <v>36.12091735743752</v>
       </c>
       <c r="I15">
-        <v>3.136053097532257</v>
+        <v>3.016256156377</v>
       </c>
       <c r="J15">
-        <v>12.60925709895732</v>
+        <v>11.04587550093089</v>
       </c>
       <c r="K15">
-        <v>21.07586347889722</v>
+        <v>18.53932479945803</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.18079513393398</v>
       </c>
       <c r="M15">
-        <v>13.59253742168273</v>
+        <v>13.36737434941405</v>
       </c>
       <c r="N15">
-        <v>6.837603934737227</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>10.96817981970401</v>
+        <v>13.8090930366265</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.958966467789315</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.90659611232636</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.33982698107159</v>
+        <v>15.18392953707945</v>
       </c>
       <c r="C16">
-        <v>8.878477724940074</v>
+        <v>9.273889172291799</v>
       </c>
       <c r="D16">
-        <v>5.732924003143712</v>
+        <v>5.892669025348055</v>
       </c>
       <c r="E16">
-        <v>7.501044382056691</v>
+        <v>7.138692272094874</v>
       </c>
       <c r="F16">
-        <v>27.99655165713576</v>
+        <v>25.2976456380257</v>
       </c>
       <c r="G16">
-        <v>39.30147972606613</v>
+        <v>35.09636287430308</v>
       </c>
       <c r="I16">
-        <v>3.291673677645749</v>
+        <v>3.144187943576445</v>
       </c>
       <c r="J16">
-        <v>12.54426394447248</v>
+        <v>11.47905501929852</v>
       </c>
       <c r="K16">
-        <v>20.951897571925</v>
+        <v>18.6728234717713</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.34922812500958</v>
       </c>
       <c r="M16">
-        <v>13.19679096230106</v>
+        <v>13.3680542146235</v>
       </c>
       <c r="N16">
-        <v>6.768342429010264</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>10.74059577223953</v>
+        <v>13.42538715244598</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.890943101191514</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.67175788834395</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.01839086026225</v>
+        <v>14.87063228117785</v>
       </c>
       <c r="C17">
-        <v>8.752787898577047</v>
+        <v>9.134905262573339</v>
       </c>
       <c r="D17">
-        <v>5.710768227430587</v>
+        <v>5.837846109923818</v>
       </c>
       <c r="E17">
-        <v>7.488178908733481</v>
+        <v>7.12944720804784</v>
       </c>
       <c r="F17">
-        <v>27.72202827018655</v>
+        <v>25.21315740815464</v>
       </c>
       <c r="G17">
-        <v>38.90489150610358</v>
+        <v>34.5856933123605</v>
       </c>
       <c r="I17">
-        <v>3.388496009283122</v>
+        <v>3.22502102594238</v>
       </c>
       <c r="J17">
-        <v>12.50556275274333</v>
+        <v>11.66205290410077</v>
       </c>
       <c r="K17">
-        <v>20.87735371148502</v>
+        <v>18.72593118122897</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.43166883283915</v>
       </c>
       <c r="M17">
-        <v>12.94863959124583</v>
+        <v>13.34865104160587</v>
       </c>
       <c r="N17">
-        <v>6.72662961519335</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>10.599657282757</v>
+        <v>13.1815165688661</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.848939659478321</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.52655459894734</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.83527433552726</v>
+        <v>14.69266248716417</v>
       </c>
       <c r="C18">
-        <v>8.667452562969048</v>
+        <v>9.036085229143692</v>
       </c>
       <c r="D18">
-        <v>5.694617494424594</v>
+        <v>5.804427513035416</v>
       </c>
       <c r="E18">
-        <v>7.485132217316615</v>
+        <v>7.128617431227716</v>
       </c>
       <c r="F18">
-        <v>27.60283018894841</v>
+        <v>25.18169762854485</v>
       </c>
       <c r="G18">
-        <v>38.74505705891557</v>
+        <v>34.39493873955617</v>
       </c>
       <c r="I18">
-        <v>3.43585316663537</v>
+        <v>3.261978255232726</v>
       </c>
       <c r="J18">
-        <v>12.4971392717728</v>
+        <v>11.74736035100982</v>
       </c>
       <c r="K18">
-        <v>20.86551260849367</v>
+        <v>18.77228381562885</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.49089394186016</v>
       </c>
       <c r="M18">
-        <v>12.8005927400236</v>
+        <v>13.35082223131395</v>
       </c>
       <c r="N18">
-        <v>6.701386280126201</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>10.51849443704887</v>
+        <v>13.03496095101143</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.823292770145728</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.4430077704634</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.76911953659406</v>
+        <v>14.62869177859485</v>
       </c>
       <c r="C19">
-        <v>8.648113589811459</v>
+        <v>9.012778305370059</v>
       </c>
       <c r="D19">
-        <v>5.69169336141593</v>
+        <v>5.796643265574156</v>
       </c>
       <c r="E19">
-        <v>7.480895355493265</v>
+        <v>7.12571899448896</v>
       </c>
       <c r="F19">
-        <v>27.53285806638384</v>
+        <v>25.14128993022042</v>
       </c>
       <c r="G19">
-        <v>38.63856828563858</v>
+        <v>34.28988767171384</v>
       </c>
       <c r="I19">
-        <v>3.458726922521691</v>
+        <v>3.282615647907081</v>
       </c>
       <c r="J19">
-        <v>12.48401739720863</v>
+        <v>11.7618077381798</v>
       </c>
       <c r="K19">
-        <v>20.83808689685743</v>
+        <v>18.76618527601283</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.49459892979576</v>
       </c>
       <c r="M19">
-        <v>12.75269548859341</v>
+        <v>13.33493847922599</v>
       </c>
       <c r="N19">
-        <v>6.694075197281143</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.49065400868389</v>
+        <v>12.98722063918148</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.815683339797732</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.41438728286021</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.05328235686637</v>
+        <v>14.90453958160863</v>
       </c>
       <c r="C20">
-        <v>8.765244588284261</v>
+        <v>9.149074337819339</v>
       </c>
       <c r="D20">
-        <v>5.712874153949342</v>
+        <v>5.843124610526502</v>
       </c>
       <c r="E20">
-        <v>7.489860117953408</v>
+        <v>7.130617361103879</v>
       </c>
       <c r="F20">
-        <v>27.75423259716471</v>
+        <v>25.22669395484137</v>
       </c>
       <c r="G20">
-        <v>38.95239139284692</v>
+        <v>34.64052719845389</v>
       </c>
       <c r="I20">
-        <v>3.377432467451684</v>
+        <v>3.215491482537068</v>
       </c>
       <c r="J20">
-        <v>12.51068843433438</v>
+        <v>11.64673010576955</v>
       </c>
       <c r="K20">
-        <v>20.88761855300625</v>
+        <v>18.72337823678857</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.42520259246882</v>
       </c>
       <c r="M20">
-        <v>12.97500128897741</v>
+        <v>13.35300853290223</v>
       </c>
       <c r="N20">
-        <v>6.730919970776743</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.61473802993265</v>
+        <v>13.20755724979533</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.853309558505391</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.54207981079855</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.9771767487372</v>
+        <v>15.81400244469799</v>
       </c>
       <c r="C21">
-        <v>9.140923592517879</v>
+        <v>9.520584598182126</v>
       </c>
       <c r="D21">
-        <v>5.780030056231085</v>
+        <v>6.0343492331222</v>
       </c>
       <c r="E21">
-        <v>7.525724219179368</v>
+        <v>7.165186543971459</v>
       </c>
       <c r="F21">
-        <v>28.53608262626885</v>
+        <v>25.24801409048424</v>
       </c>
       <c r="G21">
-        <v>40.07256295281957</v>
+        <v>36.57213237870025</v>
       </c>
       <c r="I21">
-        <v>3.10222779799034</v>
+        <v>2.992704298496041</v>
       </c>
       <c r="J21">
-        <v>12.61764695096009</v>
+        <v>10.76463063460254</v>
       </c>
       <c r="K21">
-        <v>21.08843411451783</v>
+        <v>18.42963303205946</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.0835724892444</v>
       </c>
       <c r="M21">
-        <v>13.69513349556194</v>
+        <v>13.30789168066327</v>
       </c>
       <c r="N21">
-        <v>6.856717685313521</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.02625700271131</v>
+        <v>13.9022806681576</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6.975674765901181</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>10.96760775483171</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.56121507534727</v>
+        <v>16.38965561350291</v>
       </c>
       <c r="C22">
-        <v>9.36497951541681</v>
+        <v>9.734480422963536</v>
       </c>
       <c r="D22">
-        <v>5.818380812979938</v>
+        <v>6.158545930633505</v>
       </c>
       <c r="E22">
-        <v>7.556504172918353</v>
+        <v>7.196894104156133</v>
       </c>
       <c r="F22">
-        <v>29.10098202755368</v>
+        <v>25.28420692122434</v>
       </c>
       <c r="G22">
-        <v>40.89897844737155</v>
+        <v>38.01413194679692</v>
       </c>
       <c r="I22">
-        <v>2.914037915380502</v>
+        <v>2.836279492475243</v>
       </c>
       <c r="J22">
-        <v>12.71020019751266</v>
+        <v>10.19603053057644</v>
       </c>
       <c r="K22">
-        <v>21.26729364705108</v>
+        <v>18.25709541763013</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.87696707459941</v>
       </c>
       <c r="M22">
-        <v>14.14380619212191</v>
+        <v>13.30164161472735</v>
       </c>
       <c r="N22">
-        <v>6.939317946467673</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.2911792549708</v>
+        <v>14.33350476587903</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.055296889949712</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.24040081409947</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.2578104971778</v>
+        <v>16.08754668051773</v>
       </c>
       <c r="C23">
-        <v>9.229812763601469</v>
+        <v>9.615515335843556</v>
       </c>
       <c r="D23">
-        <v>5.793467627532419</v>
+        <v>6.078251941258874</v>
       </c>
       <c r="E23">
-        <v>7.545521661225495</v>
+        <v>7.18190512560912</v>
       </c>
       <c r="F23">
-        <v>28.84918394198722</v>
+        <v>25.3701527560274</v>
       </c>
       <c r="G23">
-        <v>40.54577570366062</v>
+        <v>37.18567216726969</v>
       </c>
       <c r="I23">
-        <v>3.002422701599586</v>
+        <v>2.904586435511405</v>
       </c>
       <c r="J23">
-        <v>12.67820126232764</v>
+        <v>10.60430031397312</v>
       </c>
       <c r="K23">
-        <v>21.2117517071619</v>
+        <v>18.41853491891582</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.03626701482523</v>
       </c>
       <c r="M23">
-        <v>13.90175330447278</v>
+        <v>13.35998280635912</v>
       </c>
       <c r="N23">
-        <v>6.892995002027835</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.15074355077725</v>
+        <v>14.10464783028937</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.011975432044173</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.09518195508732</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.04742745611249</v>
+        <v>14.8983211796408</v>
       </c>
       <c r="C24">
-        <v>8.733366433347538</v>
+        <v>9.112899072904723</v>
       </c>
       <c r="D24">
-        <v>5.704906865335504</v>
+        <v>5.83201438991698</v>
       </c>
       <c r="E24">
-        <v>7.497962190370854</v>
+        <v>7.137671000285241</v>
       </c>
       <c r="F24">
-        <v>27.82066531351164</v>
+        <v>25.29371748013634</v>
       </c>
       <c r="G24">
-        <v>39.07407918619992</v>
+        <v>34.74526959526897</v>
       </c>
       <c r="I24">
-        <v>3.364422589568931</v>
+        <v>3.198608337786184</v>
       </c>
       <c r="J24">
-        <v>12.53670455682612</v>
+        <v>11.67807093448294</v>
       </c>
       <c r="K24">
-        <v>20.9474001926015</v>
+        <v>18.77947954640485</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.46901668874805</v>
       </c>
       <c r="M24">
-        <v>12.95610464950782</v>
+        <v>13.3936999188792</v>
       </c>
       <c r="N24">
-        <v>6.725736839126794</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.60870171294357</v>
+        <v>13.18920641352229</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.848366811796081</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.53580978007099</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.6294935997854</v>
+        <v>13.53535722966943</v>
       </c>
       <c r="C25">
-        <v>8.175460577809243</v>
+        <v>8.392981734513363</v>
       </c>
       <c r="D25">
-        <v>5.605853092711055</v>
+        <v>5.648125752972182</v>
       </c>
       <c r="E25">
-        <v>7.45330250298409</v>
+        <v>7.124130017659379</v>
       </c>
       <c r="F25">
-        <v>26.72678355176471</v>
+        <v>24.56098196899373</v>
       </c>
       <c r="G25">
-        <v>37.50872183652839</v>
+        <v>33.66646383224651</v>
       </c>
       <c r="I25">
-        <v>3.772438065033553</v>
+        <v>3.547510695008799</v>
       </c>
       <c r="J25">
-        <v>12.40188831660526</v>
+        <v>11.68278314808042</v>
       </c>
       <c r="K25">
-        <v>20.68686846787895</v>
+        <v>18.79233985184085</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.65108582058714</v>
       </c>
       <c r="M25">
-        <v>11.85952170376853</v>
+        <v>13.18443119369814</v>
       </c>
       <c r="N25">
-        <v>6.556124531664032</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.00658686265392</v>
+        <v>12.08166451937159</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.669101320387645</v>
       </c>
       <c r="Q25">
+        <v>9.918194968361941</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
